--- a/experiments/2022_scientific_reports/results/statistics/stats_hrv_response_mist_phases.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_hrv_response_mist_phases.xlsx
@@ -11,14 +11,14 @@
     <sheet name="normality" sheetId="2" r:id="rId2"/>
     <sheet name="equal_var" sheetId="3" r:id="rId3"/>
     <sheet name="rm_anova" sheetId="4" r:id="rId4"/>
-    <sheet name="pairwise_ttests" sheetId="5" r:id="rId5"/>
+    <sheet name="pairwise_tests" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="81">
   <si>
     <t>parameter</t>
   </si>
@@ -38,6 +38,9 @@
     <t>multicomp</t>
   </si>
   <si>
+    <t>test__effsize</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>{'levels': False}</t>
   </si>
   <si>
+    <t>np2</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
@@ -119,9 +125,6 @@
     <t>p-unc</t>
   </si>
   <si>
-    <t>np2</t>
-  </si>
-  <si>
     <t>eps</t>
   </si>
   <si>
@@ -257,7 +260,7 @@
     <t>3.692</t>
   </si>
   <si>
-    <t>Pairwise t-Tests</t>
+    <t>Pairwise Tests</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -640,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -656,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -664,7 +667,15 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -682,36 +693,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0.9513</v>
@@ -727,7 +738,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>0.9496</v>
@@ -743,7 +754,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0.9317</v>
@@ -758,10 +769,10 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>0.9086</v>
@@ -777,7 +788,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0.8782</v>
@@ -793,7 +804,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>0.8372000000000001</v>
@@ -808,10 +819,10 @@
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>0.9534</v>
@@ -827,7 +838,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>0.7528</v>
@@ -843,7 +854,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>0.9204</v>
@@ -857,13 +868,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>0.8837</v>
@@ -879,7 +890,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>0.852</v>
@@ -895,7 +906,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>0.9191</v>
@@ -910,10 +921,10 @@
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>0.9026</v>
@@ -929,7 +940,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>0.8868</v>
@@ -945,7 +956,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>0.8326</v>
@@ -960,10 +971,10 @@
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>0.9245</v>
@@ -979,7 +990,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>0.9617</v>
@@ -995,7 +1006,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>0.8944</v>
@@ -1009,13 +1020,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>0.966</v>
@@ -1031,7 +1042,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>0.9711</v>
@@ -1047,7 +1058,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>0.9107</v>
@@ -1062,10 +1073,10 @@
     <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>0.9435</v>
@@ -1081,7 +1092,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>0.9374</v>
@@ -1097,7 +1108,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>0.8558</v>
@@ -1112,10 +1123,10 @@
     <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>0.919</v>
@@ -1131,7 +1142,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>0.7566000000000001</v>
@@ -1147,7 +1158,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>0.9212</v>
@@ -1188,36 +1199,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>0.1715</v>
@@ -1232,10 +1243,10 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>0.9638</v>
@@ -1250,10 +1261,10 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>3.3801</v>
@@ -1267,13 +1278,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>0.1639</v>
@@ -1288,10 +1299,10 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>0.2318</v>
@@ -1306,10 +1317,10 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>1.2748</v>
@@ -1323,13 +1334,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>0.0518</v>
@@ -1344,10 +1355,10 @@
     <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>0.3082</v>
@@ -1362,10 +1373,10 @@
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>1.2484</v>
@@ -1397,63 +1408,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1477,13 +1488,13 @@
     <row r="4" spans="1:14">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1507,13 +1518,13 @@
     <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1536,16 +1547,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1569,13 +1580,13 @@
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1599,13 +1610,13 @@
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1628,16 +1639,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1661,13 +1672,13 @@
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1703,13 +1714,13 @@
     <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1750,72 +1761,72 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1830,13 +1841,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3">
         <v>0.0186</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>0.4796</v>
@@ -1852,13 +1863,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1873,13 +1884,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4">
         <v>0.0037</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>0.6576</v>
@@ -1895,13 +1906,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1916,13 +1927,13 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5">
         <v>0.1877</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>0.2044</v>
@@ -1934,19 +1945,19 @@
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1961,13 +1972,13 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6">
         <v>0.0139</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>0.5318000000000001</v>
@@ -1983,13 +1994,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2004,13 +2015,13 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7">
         <v>0.0054</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>0.6618000000000001</v>
@@ -2026,13 +2037,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2047,13 +2058,13 @@
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8">
         <v>0.3689</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>0.1446</v>
@@ -2065,19 +2076,19 @@
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2092,13 +2103,13 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9">
         <v>0.0151</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N9">
         <v>-0.892</v>
@@ -2114,13 +2125,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2135,13 +2146,13 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10">
         <v>0.0013</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N10">
         <v>-1.3317</v>
@@ -2157,13 +2168,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2178,13 +2189,13 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L11">
         <v>0.1422</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N11">
         <v>-0.4142</v>
@@ -2195,22 +2206,22 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2225,13 +2236,13 @@
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12">
         <v>0.7566000000000001</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N12">
         <v>0.0502</v>
@@ -2247,13 +2258,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2268,13 +2279,13 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13">
         <v>0.08749999999999999</v>
       </c>
       <c r="M13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>0.4388</v>
@@ -2290,13 +2301,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2311,13 +2322,13 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L14">
         <v>0.1143</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>0.3808</v>
@@ -2329,19 +2340,19 @@
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2356,13 +2367,13 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15">
         <v>0.6075</v>
       </c>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N15">
         <v>0.0902</v>
@@ -2378,13 +2389,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2399,13 +2410,13 @@
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L16">
         <v>0.1025</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N16">
         <v>0.3767</v>
@@ -2421,13 +2432,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2442,13 +2453,13 @@
         <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17">
         <v>0.237</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N17">
         <v>0.3011</v>
@@ -2460,19 +2471,19 @@
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2487,13 +2498,13 @@
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L18">
         <v>0.1933</v>
       </c>
       <c r="M18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N18">
         <v>-0.4111</v>
@@ -2509,13 +2520,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2530,13 +2541,13 @@
         <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L19">
         <v>0.0017</v>
       </c>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N19">
         <v>-1.0276</v>
@@ -2552,13 +2563,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2573,13 +2584,13 @@
         <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L20">
         <v>0.0336</v>
       </c>
       <c r="M20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>-0.6432</v>
@@ -2590,22 +2601,22 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2620,13 +2631,13 @@
         <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L21">
         <v>0.4136</v>
       </c>
       <c r="M21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N21">
         <v>0.1045</v>
@@ -2642,13 +2653,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2663,13 +2674,13 @@
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L22">
         <v>0.0092</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N22">
         <v>0.5135999999999999</v>
@@ -2685,13 +2696,13 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2706,13 +2717,13 @@
         <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L23">
         <v>0.0064</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N23">
         <v>0.3832</v>
@@ -2724,19 +2735,19 @@
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2751,13 +2762,13 @@
         <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L24">
         <v>0.3496</v>
       </c>
       <c r="M24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N24">
         <v>0.1297</v>
@@ -2773,13 +2784,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2794,13 +2805,13 @@
         <v>12</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L25">
         <v>0.1749</v>
       </c>
       <c r="M25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N25">
         <v>0.3004</v>
@@ -2816,13 +2827,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2837,13 +2848,13 @@
         <v>12</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L26">
         <v>0.1646</v>
       </c>
       <c r="M26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N26">
         <v>0.1711</v>
@@ -2855,19 +2866,19 @@
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2882,13 +2893,13 @@
         <v>12</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L27">
         <v>0.0767</v>
       </c>
       <c r="M27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N27">
         <v>-0.3671</v>
@@ -2904,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2925,13 +2936,13 @@
         <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L28">
         <v>0.0042</v>
       </c>
       <c r="M28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N28">
         <v>-1.0123</v>
@@ -2947,13 +2958,13 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2968,13 +2979,13 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L29">
         <v>0.0175</v>
       </c>
       <c r="M29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N29">
         <v>-0.5962</v>

--- a/experiments/2022_scientific_reports/results/statistics/stats_hrv_response_mist_phases.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_hrv_response_mist_phases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="80">
   <si>
     <t>parameter</t>
   </si>
@@ -38,9 +38,6 @@
     <t>multicomp</t>
   </si>
   <si>
-    <t>test__effsize</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>{'levels': False}</t>
   </si>
   <si>
-    <t>np2</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -123,6 +117,9 @@
   </si>
   <si>
     <t>p-unc</t>
+  </si>
+  <si>
+    <t>ng2</t>
   </si>
   <si>
     <t>eps</t>
@@ -619,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -643,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -659,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -667,15 +664,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -693,36 +682,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>0.9513</v>
@@ -738,7 +727,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>0.9496</v>
@@ -754,7 +743,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>0.9317</v>
@@ -769,10 +758,10 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D6">
         <v>0.9086</v>
@@ -788,7 +777,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>0.8782</v>
@@ -804,7 +793,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>0.8372000000000001</v>
@@ -819,10 +808,10 @@
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>0.9534</v>
@@ -838,7 +827,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>0.7528</v>
@@ -854,7 +843,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>0.9204</v>
@@ -868,13 +857,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>0.8837</v>
@@ -890,7 +879,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>0.852</v>
@@ -906,7 +895,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>0.9191</v>
@@ -921,10 +910,10 @@
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D15">
         <v>0.9026</v>
@@ -940,7 +929,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>0.8868</v>
@@ -956,7 +945,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>0.8326</v>
@@ -971,10 +960,10 @@
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>0.9245</v>
@@ -990,7 +979,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>0.9617</v>
@@ -1006,7 +995,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>0.8944</v>
@@ -1020,13 +1009,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>0.966</v>
@@ -1042,7 +1031,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>0.9711</v>
@@ -1058,7 +1047,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>0.9107</v>
@@ -1073,10 +1062,10 @@
     <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D24">
         <v>0.9435</v>
@@ -1092,7 +1081,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>0.9374</v>
@@ -1108,7 +1097,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26">
         <v>0.8558</v>
@@ -1123,10 +1112,10 @@
     <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>0.919</v>
@@ -1142,7 +1131,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>0.7566000000000001</v>
@@ -1158,7 +1147,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>0.9212</v>
@@ -1199,36 +1188,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>0.1715</v>
@@ -1243,10 +1232,10 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>0.9638</v>
@@ -1261,10 +1250,10 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>3.3801</v>
@@ -1278,13 +1267,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>0.1639</v>
@@ -1299,10 +1288,10 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>0.2318</v>
@@ -1317,10 +1306,10 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1.2748</v>
@@ -1334,13 +1323,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>0.0518</v>
@@ -1355,10 +1344,10 @@
     <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>0.3082</v>
@@ -1373,10 +1362,10 @@
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>1.2484</v>
@@ -1408,63 +1397,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1479,7 +1468,7 @@
         <v>0.0018</v>
       </c>
       <c r="I3">
-        <v>0.4106</v>
+        <v>0.0851</v>
       </c>
       <c r="J3">
         <v>0.9129</v>
@@ -1488,13 +1477,13 @@
     <row r="4" spans="1:14">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1509,7 +1498,7 @@
         <v>0.0019</v>
       </c>
       <c r="I4">
-        <v>0.4056</v>
+        <v>0.0939</v>
       </c>
       <c r="J4">
         <v>0.8491</v>
@@ -1518,13 +1507,13 @@
     <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1539,7 +1528,7 @@
         <v>0.0011</v>
       </c>
       <c r="I5">
-        <v>0.4329</v>
+        <v>0.2322</v>
       </c>
       <c r="J5">
         <v>0.9646</v>
@@ -1547,16 +1536,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1571,7 +1560,7 @@
         <v>0.1062</v>
       </c>
       <c r="I6">
-        <v>0.1705</v>
+        <v>0.0382</v>
       </c>
       <c r="J6">
         <v>0.9172</v>
@@ -1580,13 +1569,13 @@
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1601,7 +1590,7 @@
         <v>0.1844</v>
       </c>
       <c r="I7">
-        <v>0.1314</v>
+        <v>0.0298</v>
       </c>
       <c r="J7">
         <v>0.9056</v>
@@ -1610,13 +1599,13 @@
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1631,7 +1620,7 @@
         <v>0.0023</v>
       </c>
       <c r="I8">
-        <v>0.3971</v>
+        <v>0.1832</v>
       </c>
       <c r="J8">
         <v>0.9637</v>
@@ -1639,16 +1628,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1663,7 +1652,7 @@
         <v>0.0031</v>
       </c>
       <c r="I9">
-        <v>0.3814</v>
+        <v>0.0499</v>
       </c>
       <c r="J9">
         <v>0.867</v>
@@ -1672,13 +1661,13 @@
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1693,7 +1682,7 @@
         <v>0.1782</v>
       </c>
       <c r="I10">
-        <v>0.1339</v>
+        <v>0.0174</v>
       </c>
       <c r="J10">
         <v>0.6301</v>
@@ -1714,13 +1703,13 @@
     <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1735,7 +1724,7 @@
         <v>0.0011</v>
       </c>
       <c r="I11">
-        <v>0.4353</v>
+        <v>0.1647</v>
       </c>
       <c r="J11">
         <v>0.7786</v>
@@ -1761,72 +1750,72 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1841,13 +1830,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3">
         <v>0.0186</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3">
         <v>0.4796</v>
@@ -1863,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1884,13 +1873,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4">
         <v>0.0037</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>0.6576</v>
@@ -1906,13 +1895,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1927,13 +1916,13 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5">
         <v>0.1877</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>0.2044</v>
@@ -1945,19 +1934,19 @@
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1972,13 +1961,13 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6">
         <v>0.0139</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>0.5318000000000001</v>
@@ -1994,13 +1983,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2015,13 +2004,13 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7">
         <v>0.0054</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>0.6618000000000001</v>
@@ -2037,13 +2026,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2058,13 +2047,13 @@
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8">
         <v>0.3689</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>0.1446</v>
@@ -2076,19 +2065,19 @@
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2103,13 +2092,13 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9">
         <v>0.0151</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>-0.892</v>
@@ -2125,13 +2114,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2146,13 +2135,13 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10">
         <v>0.0013</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10">
         <v>-1.3317</v>
@@ -2168,13 +2157,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2189,13 +2178,13 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11">
         <v>0.1422</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N11">
         <v>-0.4142</v>
@@ -2206,22 +2195,22 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2236,13 +2225,13 @@
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12">
         <v>0.7566000000000001</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12">
         <v>0.0502</v>
@@ -2258,13 +2247,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2279,13 +2268,13 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13">
         <v>0.08749999999999999</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N13">
         <v>0.4388</v>
@@ -2301,13 +2290,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2322,13 +2311,13 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14">
         <v>0.1143</v>
       </c>
       <c r="M14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>0.3808</v>
@@ -2340,19 +2329,19 @@
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2367,13 +2356,13 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15">
         <v>0.6075</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>0.0902</v>
@@ -2389,13 +2378,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
         <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2410,13 +2399,13 @@
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16">
         <v>0.1025</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>0.3767</v>
@@ -2432,13 +2421,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2453,13 +2442,13 @@
         <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L17">
         <v>0.237</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N17">
         <v>0.3011</v>
@@ -2471,19 +2460,19 @@
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2498,13 +2487,13 @@
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18">
         <v>0.1933</v>
       </c>
       <c r="M18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N18">
         <v>-0.4111</v>
@@ -2520,13 +2509,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2541,13 +2530,13 @@
         <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L19">
         <v>0.0017</v>
       </c>
       <c r="M19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N19">
         <v>-1.0276</v>
@@ -2563,13 +2552,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2584,13 +2573,13 @@
         <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L20">
         <v>0.0336</v>
       </c>
       <c r="M20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>-0.6432</v>
@@ -2601,22 +2590,22 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2631,13 +2620,13 @@
         <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L21">
         <v>0.4136</v>
       </c>
       <c r="M21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N21">
         <v>0.1045</v>
@@ -2653,13 +2642,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
         <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2674,13 +2663,13 @@
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L22">
         <v>0.0092</v>
       </c>
       <c r="M22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>0.5135999999999999</v>
@@ -2696,13 +2685,13 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2717,13 +2706,13 @@
         <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L23">
         <v>0.0064</v>
       </c>
       <c r="M23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N23">
         <v>0.3832</v>
@@ -2735,19 +2724,19 @@
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2762,13 +2751,13 @@
         <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L24">
         <v>0.3496</v>
       </c>
       <c r="M24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N24">
         <v>0.1297</v>
@@ -2784,13 +2773,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
         <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2805,13 +2794,13 @@
         <v>12</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25">
         <v>0.1749</v>
       </c>
       <c r="M25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N25">
         <v>0.3004</v>
@@ -2827,13 +2816,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2848,13 +2837,13 @@
         <v>12</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L26">
         <v>0.1646</v>
       </c>
       <c r="M26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N26">
         <v>0.1711</v>
@@ -2866,19 +2855,19 @@
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2893,13 +2882,13 @@
         <v>12</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L27">
         <v>0.0767</v>
       </c>
       <c r="M27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N27">
         <v>-0.3671</v>
@@ -2915,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
         <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2936,13 +2925,13 @@
         <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L28">
         <v>0.0042</v>
       </c>
       <c r="M28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N28">
         <v>-1.0123</v>
@@ -2958,13 +2947,13 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2979,13 +2968,13 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29">
         <v>0.0175</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N29">
         <v>-0.5962</v>
